--- a/endpoints.xlsx
+++ b/endpoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4935ef09353797/Documentos/mi-biblioteca-backend-shaderkill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\mi-biblioteca-backend-shaderkill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{05C16BD1-62DA-408A-A8A8-30FCEF2A3796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E141B466-B939-46EB-8025-5D0C1E689A40}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{05C16BD1-62DA-408A-A8A8-30FCEF2A3796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{459260AA-9177-489F-A483-B0F782D451EE}"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="2332" windowWidth="15548" windowHeight="10651" xr2:uid="{894631B0-9921-422B-B2D2-96593E122FDA}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{894631B0-9921-422B-B2D2-96593E122FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>endpoints</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>/biblio/ciudades</t>
-  </si>
-  <si>
-    <t>nombreCiudad</t>
   </si>
   <si>
     <t>/biblio/estado_multas</t>
@@ -623,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36573C18-0C0E-4461-BAF5-9088DBD59F82}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -638,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -712,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +725,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -743,7 +742,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -752,18 +751,18 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -772,18 +771,18 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -792,7 +791,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -802,7 +801,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -812,7 +811,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -822,14 +821,14 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -838,7 +837,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -851,28 +850,28 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -880,42 +879,42 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -924,19 +923,19 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -944,30 +943,30 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -983,7 +982,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1000,7 +999,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1008,7 +1007,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1016,14 +1015,14 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1032,78 +1031,78 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1112,26 +1111,26 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1140,26 +1139,26 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1168,7 +1167,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1176,7 +1175,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1184,7 +1183,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1192,25 +1191,25 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
